--- a/Data/Transitions/19571969Translation.xlsx
+++ b/Data/Transitions/19571969Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="667">
   <si>
     <t>id</t>
   </si>
@@ -442,7 +442,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -634,7 +634,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1727,9 +1727,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3929,7 +3926,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>571</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3940,7 +3937,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3951,7 +3948,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4006,7 +4003,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4138,7 +4135,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4149,7 +4146,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4182,7 +4179,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4193,7 +4190,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4237,7 +4234,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4248,7 +4245,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4325,7 +4322,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4336,7 +4333,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4358,7 +4355,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4435,7 +4432,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4446,7 +4443,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4468,7 +4465,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4490,7 +4487,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4512,7 +4509,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4633,7 +4630,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>571</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4677,7 +4674,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4688,7 +4685,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4710,7 +4707,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4765,7 +4762,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4831,7 +4828,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4886,7 +4883,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4985,7 +4982,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5051,7 +5048,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5095,7 +5092,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5117,7 +5114,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5128,7 +5125,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5139,7 +5136,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5282,7 +5279,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5326,7 +5323,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5337,7 +5334,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5425,7 +5422,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5436,7 +5433,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5513,7 +5510,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5601,7 +5598,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5634,7 +5631,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5656,7 +5653,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5689,7 +5686,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5711,7 +5708,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5733,7 +5730,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5755,7 +5752,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5810,7 +5807,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5843,7 +5840,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5953,7 +5950,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5964,7 +5961,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6008,7 +6005,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6030,7 +6027,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6129,7 +6126,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6151,7 +6148,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6206,7 +6203,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6228,7 +6225,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6327,7 +6324,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6338,7 +6335,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6349,7 +6346,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6360,7 +6357,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6448,7 +6445,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6514,7 +6511,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6525,7 +6522,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6569,7 +6566,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6646,7 +6643,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6690,7 +6687,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6745,7 +6742,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6789,7 +6786,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7053,7 +7050,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7108,7 +7105,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7130,7 +7127,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7141,7 +7138,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7152,7 +7149,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7185,7 +7182,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7207,7 +7204,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7218,7 +7215,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7229,7 +7226,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7251,7 +7248,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7383,7 +7380,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7438,7 +7435,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7471,7 +7468,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7515,7 +7512,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7526,7 +7523,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7537,7 +7534,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7592,7 +7589,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7603,7 +7600,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7625,7 +7622,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7636,7 +7633,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7647,7 +7644,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7691,7 +7688,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7768,7 +7765,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7801,7 +7798,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7834,7 +7831,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7922,7 +7919,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7944,7 +7941,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7966,7 +7963,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7977,7 +7974,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7999,7 +7996,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8021,7 +8018,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8120,7 +8117,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
